--- a/2024/general/File Types.xlsx
+++ b/2024/general/File Types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jadair/dev/other/openelections/openelections-sources-tx/2024/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C301F38F-F836-D54F-A2A8-4F8EECC75C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6276736F-1CA3-3E4E-82A5-778B0F2A3E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="2800" windowWidth="17980" windowHeight="17440" xr2:uid="{4DD056A7-A349-FA43-949B-8D112F24EFE7}"/>
+    <workbookView xWindow="5600" yWindow="3200" windowWidth="17980" windowHeight="17440" xr2:uid="{4DD056A7-A349-FA43-949B-8D112F24EFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="File Types" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="309">
   <si>
     <t>PDF scan</t>
   </si>
@@ -945,6 +945,24 @@
   </si>
   <si>
     <t>PDF 9 is very similar to PDF 2a</t>
+  </si>
+  <si>
+    <t>PDF 10</t>
+  </si>
+  <si>
+    <t>PDF 10 is similar to PDF 2a</t>
+  </si>
+  <si>
+    <t>PDF 1f</t>
+  </si>
+  <si>
+    <t>PDF 1f is similar to PDF 1a</t>
+  </si>
+  <si>
+    <t>PDF 1g</t>
+  </si>
+  <si>
+    <t>PDF 1g is similar to PDF 1a</t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AFCB9D-DFE4-DA4A-9811-827DF84401F0}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,194 +1401,227 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>289</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>294</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>231</v>
+      </c>
+      <c r="C19" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>265</v>
+      </c>
+      <c r="C20" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>275</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>103</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>297</v>
       </c>
     </row>
@@ -1584,7 +1635,7 @@
   <dimension ref="A1:C255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1608,6 +1659,9 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
+      <c r="B2" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1618,21 +1672,33 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
+      <c r="B4" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1646,6 +1712,9 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2678,6 +2747,9 @@
       <c r="A192" t="s">
         <v>210</v>
       </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
@@ -2952,6 +3024,9 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>259</v>
+      </c>
+      <c r="B241" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">

--- a/2024/general/File Types.xlsx
+++ b/2024/general/File Types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jadair/dev/other/openelections/openelections-sources-tx/2024/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6276736F-1CA3-3E4E-82A5-778B0F2A3E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D432C11-CDE6-0842-AC33-4EDE0214FB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="3200" windowWidth="17980" windowHeight="17440" xr2:uid="{4DD056A7-A349-FA43-949B-8D112F24EFE7}"/>
+    <workbookView xWindow="5600" yWindow="3200" windowWidth="17980" windowHeight="17440" activeTab="1" xr2:uid="{4DD056A7-A349-FA43-949B-8D112F24EFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="File Types" sheetId="2" r:id="rId1"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={767AD4EF-E255-4149-AC98-14A74A09C46F}</author>
+  </authors>
+  <commentList>
+    <comment ref="B241" authorId="0" shapeId="0" xr:uid="{767AD4EF-E255-4149-AC98-14A74A09C46F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Unofficial</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="310">
   <si>
     <t>PDF scan</t>
   </si>
@@ -963,13 +981,16 @@
   </si>
   <si>
     <t>PDF 1g is similar to PDF 1a</t>
+  </si>
+  <si>
+    <t>PDF 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -977,13 +998,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -998,8 +1039,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,6 +1058,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="John S. Adair" id="{0400C59D-DB19-1B42-9542-1DEC88F036B2}" userId="7249a6689a6b64fc" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1312,11 +1361,19 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B241" dT="2025-04-23T04:10:02.83" personId="{0400C59D-DB19-1B42-9542-1DEC88F036B2}" id="{767AD4EF-E255-4149-AC98-14A74A09C46F}">
+    <text>Unofficial</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AFCB9D-DFE4-DA4A-9811-827DF84401F0}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1631,11 +1688,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECF127B-0562-FD45-B6B6-388FD65D234D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECF127B-0562-FD45-B6B6-388FD65D234D}">
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,6 +1724,7 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1720,11 +1778,15 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1738,11 +1800,13 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1767,16 +1831,21 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1804,6 +1873,7 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1817,26 +1887,35 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
+      <c r="B28" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -3025,7 +3104,7 @@
       <c r="A241" t="s">
         <v>259</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3110,5 +3189,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>